--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Roots\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393B142-99E4-49A6-9793-F26EAE840DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C18D8-3838-4685-B29D-CAC3B38154BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Root/EventConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Event</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,6 +174,22 @@
   </si>
   <si>
     <t>TbEventEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event@Root/EventConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventCondition@Root/EventConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventOption@Root/EventConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEffect@Root/EventConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +228,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -240,15 +261,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,9 +282,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,26 +565,26 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,18 +692,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -689,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -703,72 +731,78 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{185AB479-72C7-4113-8D8E-249574C856F8}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{B57A3F59-31AD-44B9-B22E-BF292D13BADE}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{19AF3CE4-5339-4162-AF71-9061E0953DF9}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{F9BDF738-8974-4B2A-BC5C-11367FBF5B0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C18D8-3838-4685-B29D-CAC3B38154BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD5CA3F-8E0E-4BC9-9BCA-9B846D3CD2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TbEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TbEventCondition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>EventEffect@Root/EventConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEvent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -763,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
@@ -778,12 +778,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD5CA3F-8E0E-4BC9-9BCA-9B846D3CD2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA3798-A815-4E54-8585-42EB51035122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1920" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA3798-A815-4E54-8585-42EB51035122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395ECA8-5E20-48EA-BEC3-61D196746F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1920" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EventEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TbEventCondition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,10 +165,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TbEventEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Event@Root/EventConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -182,10 +174,6 @@
   </si>
   <si>
     <t>EventOption@Root/EventConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventEffect@Root/EventConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -565,7 +553,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,7 +727,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -748,13 +736,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -763,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
@@ -778,22 +766,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -801,7 +780,6 @@
     <hyperlink ref="E11" r:id="rId1" xr:uid="{185AB479-72C7-4113-8D8E-249574C856F8}"/>
     <hyperlink ref="E12" r:id="rId2" xr:uid="{B57A3F59-31AD-44B9-B22E-BF292D13BADE}"/>
     <hyperlink ref="E13" r:id="rId3" xr:uid="{19AF3CE4-5339-4162-AF71-9061E0953DF9}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{F9BDF738-8974-4B2A-BC5C-11367FBF5B0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395ECA8-5E20-48EA-BEC3-61D196746F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FC6C9-CA40-44A6-B734-970A575FBB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>TbEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -553,7 +558,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,7 +743,9 @@
       <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
